--- a/utilities/upload_data/UploadChemStructure_Issues.xlsx
+++ b/utilities/upload_data/UploadChemStructure_Issues.xlsx
@@ -760,7 +760,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Fe', 'Hg']</t>
+          <t>['Hg', 'Fe']</t>
         </is>
       </c>
     </row>
@@ -3106,7 +3106,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['Mo', 'Au']</t>
+          <t>['Au', 'Mo']</t>
         </is>
       </c>
     </row>
@@ -3684,7 +3684,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Mo', 'Au']</t>
+          <t>['Au', 'Mo']</t>
         </is>
       </c>
     </row>
@@ -5350,7 +5350,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>['Mo', 'Au']</t>
+          <t>['Au', 'Mo']</t>
         </is>
       </c>
     </row>
@@ -8240,7 +8240,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['Mo', 'Au']</t>
+          <t>['Au', 'Mo']</t>
         </is>
       </c>
     </row>
@@ -16774,7 +16774,7 @@
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>['Mo', 'Au']</t>
+          <t>['Au', 'Mo']</t>
         </is>
       </c>
     </row>
